--- a/Outputs/4. Prosumer percentage constrained/Output Files/60/Output_2_28.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Output Files/60/Output_2_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1880376.260671615</v>
+        <v>1879961.322636763</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2280223.653892732</v>
+        <v>2280223.653892728</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791241</v>
+        <v>419463.0933791244</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8890816.023678064</v>
+        <v>8890816.023678062</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>81.54841054523983</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>80.89921850190586</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -744,16 +744,16 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1177072309324194</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
         <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>48.89338144820752</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
         <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -804,7 +804,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
-        <v>177.5210747552478</v>
+        <v>158.3198111978326</v>
       </c>
     </row>
     <row r="4">
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>87.9530874907083</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>108.1045920014102</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -896,19 +896,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>55.42108810644419</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>16.99219884861441</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -978,10 +978,10 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>28.46632018739735</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>123.1874880556995</v>
@@ -1026,10 +1026,10 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
-        <v>207.9625118881446</v>
+        <v>190.0029360971993</v>
       </c>
       <c r="V6" t="n">
         <v>220.3146016126436</v>
@@ -1060,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>66.0314987001008</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>130.4178928586277</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>68.06338365768006</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>120.1192172343795</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1294,25 +1294,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>72.30123682227985</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>101.6188248487975</v>
       </c>
       <c r="C11" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372788</v>
+        <v>65.87543334372789</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.77010711362801</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>11.65031489816594</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
         <v>267.6074288087848</v>
@@ -1433,7 +1433,7 @@
         <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
         <v>321.4474895938729</v>
@@ -1528,25 +1528,25 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>23.59321081101289</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177846</v>
+        <v>82.99846957177847</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465757</v>
+        <v>82.92491162465758</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442484</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338901</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>46.46817393230458</v>
+        <v>60.68516871456096</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901686</v>
+        <v>51.58366707901688</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
         <v>162.2835489187163</v>
@@ -1616,16 +1616,16 @@
         <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>9.662889068672399</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,13 +1658,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>66.26214042859138</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
         <v>296.2107322866635</v>
@@ -1673,7 +1673,7 @@
         <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -1783,7 +1783,7 @@
         <v>82.84545313338901</v>
       </c>
       <c r="I16" t="n">
-        <v>45.79145793820062</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>51.58366707901686</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
         <v>162.2835489187163</v>
@@ -1825,10 +1825,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>16.05788523921058</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>149.8026281767911</v>
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879318</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
         <v>236.929075365811</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F19" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C26" t="n">
         <v>295.2524720077822</v>
@@ -2561,7 +2561,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2615,13 +2615,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035423</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380451</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414335</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404347</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C31" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380448</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497641</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U31" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>283.7098784815727</v>
+        <v>283.709878481573</v>
       </c>
       <c r="C32" t="n">
-        <v>276.4638267093885</v>
+        <v>276.4638267093888</v>
       </c>
       <c r="D32" t="n">
-        <v>268.8067977227888</v>
+        <v>268.806797722789</v>
       </c>
       <c r="E32" t="n">
-        <v>285.7777698619107</v>
+        <v>285.777769861911</v>
       </c>
       <c r="F32" t="n">
-        <v>299.9455743126118</v>
+        <v>299.9455743126121</v>
       </c>
       <c r="G32" t="n">
-        <v>296.2512081841667</v>
+        <v>296.251208184167</v>
       </c>
       <c r="H32" t="n">
-        <v>208.0623001564641</v>
+        <v>208.0623001564643</v>
       </c>
       <c r="I32" t="n">
-        <v>24.17382596574964</v>
+        <v>24.17382596574993</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>52.06849973564977</v>
+        <v>52.06849973565005</v>
       </c>
       <c r="T32" t="n">
-        <v>108.4856766434673</v>
+        <v>108.4856766434676</v>
       </c>
       <c r="U32" t="n">
-        <v>140.4152824970372</v>
+        <v>140.4152824970375</v>
       </c>
       <c r="V32" t="n">
-        <v>225.9058214308066</v>
+        <v>225.9058214308069</v>
       </c>
       <c r="W32" t="n">
-        <v>254.5091249086852</v>
+        <v>254.5091249086855</v>
       </c>
       <c r="X32" t="n">
-        <v>272.7781592435636</v>
+        <v>272.7781592435638</v>
       </c>
       <c r="Y32" t="n">
-        <v>279.7458822158947</v>
+        <v>279.745882215895</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>70.57601873167809</v>
+        <v>70.57601873167837</v>
       </c>
       <c r="C34" t="n">
-        <v>55.7231469819605</v>
+        <v>55.72314698196078</v>
       </c>
       <c r="D34" t="n">
-        <v>41.29686219380022</v>
+        <v>41.29686219380051</v>
       </c>
       <c r="E34" t="n">
-        <v>41.22330424667933</v>
+        <v>41.22330424667962</v>
       </c>
       <c r="F34" t="n">
-        <v>42.9727556664466</v>
+        <v>42.97275566644689</v>
       </c>
       <c r="G34" t="n">
-        <v>53.79159358883874</v>
+        <v>53.79159358883902</v>
       </c>
       <c r="H34" t="n">
-        <v>41.14384575541078</v>
+        <v>41.14384575541106</v>
       </c>
       <c r="I34" t="n">
-        <v>18.98356133658271</v>
+        <v>18.98356133658299</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.882059701038628</v>
+        <v>9.882059701038912</v>
       </c>
       <c r="S34" t="n">
-        <v>88.00800320656595</v>
+        <v>88.00800320656623</v>
       </c>
       <c r="T34" t="n">
-        <v>120.581941540738</v>
+        <v>120.5819415407383</v>
       </c>
       <c r="U34" t="n">
-        <v>169.8044840678079</v>
+        <v>169.8044840678082</v>
       </c>
       <c r="V34" t="n">
-        <v>150.5396319546738</v>
+        <v>150.5396319546741</v>
       </c>
       <c r="W34" t="n">
-        <v>167.717178275424</v>
+        <v>167.7171782754243</v>
       </c>
       <c r="X34" t="n">
-        <v>118.9595992221365</v>
+        <v>118.9595992221368</v>
       </c>
       <c r="Y34" t="n">
-        <v>108.1010207988129</v>
+        <v>108.1010207988132</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
@@ -3484,13 +3484,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3515,13 +3515,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3563,10 +3563,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y38" t="n">
         <v>262.1658326730205</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E40" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G40" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253654</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U40" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="41">
@@ -3989,13 +3989,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U44" t="n">
-        <v>122.8352329541626</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879328</v>
       </c>
       <c r="W44" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H46" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1049.295727741026</v>
+        <v>1073.6704142527</v>
       </c>
       <c r="C2" t="n">
-        <v>656.120226243956</v>
+        <v>991.298282388821</v>
       </c>
       <c r="D2" t="n">
-        <v>270.6790974606238</v>
+        <v>605.8571536054887</v>
       </c>
       <c r="E2" t="n">
-        <v>270.6790974606238</v>
+        <v>605.8571536054887</v>
       </c>
       <c r="F2" t="n">
-        <v>188.9627151354663</v>
+        <v>593.0031191758706</v>
       </c>
       <c r="G2" t="n">
         <v>179.8403636638736</v>
@@ -4325,55 +4325,55 @@
         <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>41.50324675633838</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J2" t="n">
-        <v>186.1530196651665</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K2" t="n">
-        <v>545.1353756926283</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="L2" t="n">
-        <v>1038.455667411157</v>
+        <v>679.4733113836954</v>
       </c>
       <c r="M2" t="n">
-        <v>1552.058346020845</v>
+        <v>679.4733113836954</v>
       </c>
       <c r="N2" t="n">
-        <v>1635.122736924591</v>
+        <v>1193.075989993384</v>
       </c>
       <c r="O2" t="n">
-        <v>2075.162337816919</v>
+        <v>1633.115590885712</v>
       </c>
       <c r="P2" t="n">
-        <v>2075.162337816919</v>
+        <v>1981.303083017234</v>
       </c>
       <c r="Q2" t="n">
-        <v>2075.162337816919</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R2" t="n">
-        <v>2037.169424102441</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="S2" t="n">
-        <v>1870.655869043492</v>
+        <v>1870.655869043495</v>
       </c>
       <c r="T2" t="n">
-        <v>1647.155266602908</v>
+        <v>1870.655869043495</v>
       </c>
       <c r="U2" t="n">
-        <v>1391.402537037507</v>
+        <v>1870.655869043495</v>
       </c>
       <c r="V2" t="n">
-        <v>1049.295727741026</v>
+        <v>1870.655869043495</v>
       </c>
       <c r="W2" t="n">
-        <v>1049.295727741026</v>
+        <v>1870.655869043495</v>
       </c>
       <c r="X2" t="n">
-        <v>1049.295727741026</v>
+        <v>1870.655869043495</v>
       </c>
       <c r="Y2" t="n">
-        <v>1049.295727741026</v>
+        <v>1474.165159964097</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>580.1098290832499</v>
+        <v>752.5718134969703</v>
       </c>
       <c r="C3" t="n">
-        <v>429.4555986433421</v>
+        <v>601.9175830570625</v>
       </c>
       <c r="D3" t="n">
-        <v>299.3666312648224</v>
+        <v>471.8286156785429</v>
       </c>
       <c r="E3" t="n">
-        <v>299.2477350719614</v>
+        <v>335.3821247894306</v>
       </c>
       <c r="F3" t="n">
-        <v>299.2477350719614</v>
+        <v>210.9503186725624</v>
       </c>
       <c r="G3" t="n">
-        <v>179.1879171438259</v>
+        <v>90.89050074442687</v>
       </c>
       <c r="H3" t="n">
-        <v>90.89050074442679</v>
+        <v>90.89050074442687</v>
       </c>
       <c r="I3" t="n">
-        <v>41.50324675633838</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J3" t="n">
-        <v>154.6182289760658</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="K3" t="n">
-        <v>474.3573750382922</v>
+        <v>361.2423928185649</v>
       </c>
       <c r="L3" t="n">
-        <v>957.9234609366055</v>
+        <v>844.8084787168782</v>
       </c>
       <c r="M3" t="n">
-        <v>1471.526139546293</v>
+        <v>1358.411157326567</v>
       </c>
       <c r="N3" t="n">
-        <v>1985.128818155981</v>
+        <v>1358.411157326567</v>
       </c>
       <c r="O3" t="n">
-        <v>2075.162337816919</v>
+        <v>1435.175877545635</v>
       </c>
       <c r="P3" t="n">
-        <v>2075.162337816919</v>
+        <v>1840.797246262032</v>
       </c>
       <c r="Q3" t="n">
-        <v>2075.162337816919</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R3" t="n">
-        <v>2075.162337816919</v>
+        <v>2051.245294714987</v>
       </c>
       <c r="S3" t="n">
-        <v>1940.231660716788</v>
+        <v>1916.314617614856</v>
       </c>
       <c r="T3" t="n">
-        <v>1763.247848915697</v>
+        <v>1916.314617614856</v>
       </c>
       <c r="U3" t="n">
-        <v>1553.184705594338</v>
+        <v>1706.251474293498</v>
       </c>
       <c r="V3" t="n">
-        <v>1330.644703965405</v>
+        <v>1483.711472664565</v>
       </c>
       <c r="W3" t="n">
-        <v>1100.527458098692</v>
+        <v>1253.594226797852</v>
       </c>
       <c r="X3" t="n">
-        <v>911.220380448704</v>
+        <v>1064.287149147864</v>
       </c>
       <c r="Y3" t="n">
-        <v>731.9061635242113</v>
+        <v>904.3681479379317</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>833.7537117207087</v>
+        <v>1432.761935725248</v>
       </c>
       <c r="C4" t="n">
-        <v>833.7537117207087</v>
+        <v>1262.556817791237</v>
       </c>
       <c r="D4" t="n">
-        <v>678.1205986232235</v>
+        <v>1173.71531527537</v>
       </c>
       <c r="E4" t="n">
-        <v>522.561786482426</v>
+        <v>1173.71531527537</v>
       </c>
       <c r="F4" t="n">
-        <v>365.2358516953989</v>
+        <v>1173.71531527537</v>
       </c>
       <c r="G4" t="n">
-        <v>196.9817977948444</v>
+        <v>1173.71531527537</v>
       </c>
       <c r="H4" t="n">
-        <v>41.50324675633838</v>
+        <v>1173.71531527537</v>
       </c>
       <c r="I4" t="n">
-        <v>41.50324675633838</v>
+        <v>1173.71531527537</v>
       </c>
       <c r="J4" t="n">
-        <v>41.50324675633838</v>
+        <v>1173.71531527537</v>
       </c>
       <c r="K4" t="n">
-        <v>123.3382878662803</v>
+        <v>1255.550356385312</v>
       </c>
       <c r="L4" t="n">
-        <v>287.46592774008</v>
+        <v>1419.677996259112</v>
       </c>
       <c r="M4" t="n">
-        <v>473.757506078344</v>
+        <v>1605.969574597376</v>
       </c>
       <c r="N4" t="n">
-        <v>656.9471401095532</v>
+        <v>1789.159208628585</v>
       </c>
       <c r="O4" t="n">
-        <v>819.6519071512612</v>
+        <v>1951.863975670293</v>
       </c>
       <c r="P4" t="n">
-        <v>939.5280729278397</v>
+        <v>2071.740141446872</v>
       </c>
       <c r="Q4" t="n">
-        <v>942.9502692978907</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R4" t="n">
-        <v>942.9502692978907</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="S4" t="n">
-        <v>833.7537117207087</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="T4" t="n">
-        <v>833.7537117207087</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="U4" t="n">
-        <v>833.7537117207087</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="V4" t="n">
-        <v>833.7537117207087</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="W4" t="n">
-        <v>833.7537117207087</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="X4" t="n">
-        <v>833.7537117207087</v>
+        <v>1841.082015599906</v>
       </c>
       <c r="Y4" t="n">
-        <v>833.7537117207087</v>
+        <v>1617.969954416549</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>871.5604407383576</v>
+        <v>898.0771600151675</v>
       </c>
       <c r="C5" t="n">
-        <v>871.5604407383576</v>
+        <v>504.901658518098</v>
       </c>
       <c r="D5" t="n">
-        <v>871.5604407383576</v>
+        <v>119.4605297347658</v>
       </c>
       <c r="E5" t="n">
-        <v>871.5604407383576</v>
+        <v>63.47963265754941</v>
       </c>
       <c r="F5" t="n">
-        <v>454.6660022683353</v>
+        <v>50.62559822793123</v>
       </c>
       <c r="G5" t="n">
-        <v>41.50324675633838</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="H5" t="n">
-        <v>41.50324675633838</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="I5" t="n">
-        <v>41.50324675633838</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J5" t="n">
-        <v>186.1530196651665</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K5" t="n">
-        <v>545.1353756926283</v>
+        <v>535.2063152162355</v>
       </c>
       <c r="L5" t="n">
-        <v>545.1353756926283</v>
+        <v>1028.526606934764</v>
       </c>
       <c r="M5" t="n">
-        <v>588.487006042433</v>
+        <v>1542.129285544453</v>
       </c>
       <c r="N5" t="n">
-        <v>1102.08968465212</v>
+        <v>1542.129285544453</v>
       </c>
       <c r="O5" t="n">
-        <v>1542.129285544449</v>
+        <v>1542.129285544453</v>
       </c>
       <c r="P5" t="n">
-        <v>1890.316777675971</v>
+        <v>1890.316777675974</v>
       </c>
       <c r="Q5" t="n">
-        <v>2075.162337816919</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R5" t="n">
-        <v>2075.162337816919</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="S5" t="n">
-        <v>2075.162337816919</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="T5" t="n">
-        <v>2075.162337816919</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="U5" t="n">
-        <v>2075.162337816919</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="V5" t="n">
-        <v>2075.162337816919</v>
+        <v>1695.062614805963</v>
       </c>
       <c r="W5" t="n">
-        <v>2057.998500596097</v>
+        <v>1695.062614805963</v>
       </c>
       <c r="X5" t="n">
-        <v>1668.545895529153</v>
+        <v>1695.062614805963</v>
       </c>
       <c r="Y5" t="n">
-        <v>1272.055186449755</v>
+        <v>1298.571905726564</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>733.1765977824059</v>
+        <v>574.3337716287374</v>
       </c>
       <c r="C6" t="n">
-        <v>582.5223673424981</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="D6" t="n">
-        <v>452.4333999639784</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="E6" t="n">
-        <v>423.6795411888296</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>299.2477350719614</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
         <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>90.89050074442679</v>
+        <v>90.89050074442687</v>
       </c>
       <c r="I6" t="n">
-        <v>41.50324675633838</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J6" t="n">
         <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>474.3573750382922</v>
+        <v>438.0071130376332</v>
       </c>
       <c r="L6" t="n">
-        <v>957.9234609366055</v>
+        <v>921.5731989359465</v>
       </c>
       <c r="M6" t="n">
-        <v>1327.194567652341</v>
+        <v>921.5731989359465</v>
       </c>
       <c r="N6" t="n">
-        <v>1327.194567652341</v>
+        <v>921.5731989359465</v>
       </c>
       <c r="O6" t="n">
-        <v>1840.797246262029</v>
+        <v>1435.175877545635</v>
       </c>
       <c r="P6" t="n">
-        <v>1840.797246262029</v>
+        <v>1840.797246262032</v>
       </c>
       <c r="Q6" t="n">
-        <v>2075.162337816919</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R6" t="n">
-        <v>2051.245294714984</v>
+        <v>2051.245294714987</v>
       </c>
       <c r="S6" t="n">
-        <v>1916.314617614853</v>
+        <v>1916.314617614856</v>
       </c>
       <c r="T6" t="n">
-        <v>1916.314617614853</v>
+        <v>1739.330805813765</v>
       </c>
       <c r="U6" t="n">
-        <v>1706.251474293494</v>
+        <v>1547.408648139826</v>
       </c>
       <c r="V6" t="n">
-        <v>1483.711472664561</v>
+        <v>1324.868646510893</v>
       </c>
       <c r="W6" t="n">
-        <v>1253.594226797848</v>
+        <v>1094.75140064418</v>
       </c>
       <c r="X6" t="n">
-        <v>1064.28714914786</v>
+        <v>905.4443229941915</v>
       </c>
       <c r="Y6" t="n">
-        <v>884.9729322233673</v>
+        <v>726.1301060696987</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>811.2150239861455</v>
+        <v>108.2017302917938</v>
       </c>
       <c r="C7" t="n">
-        <v>811.2150239861455</v>
+        <v>108.2017302917938</v>
       </c>
       <c r="D7" t="n">
-        <v>811.2150239861455</v>
+        <v>108.2017302917938</v>
       </c>
       <c r="E7" t="n">
-        <v>655.656211845348</v>
+        <v>108.2017302917938</v>
       </c>
       <c r="F7" t="n">
-        <v>498.330277058321</v>
+        <v>108.2017302917938</v>
       </c>
       <c r="G7" t="n">
-        <v>330.0762231577665</v>
+        <v>108.2017302917938</v>
       </c>
       <c r="H7" t="n">
-        <v>174.5976721192605</v>
+        <v>108.2017302917938</v>
       </c>
       <c r="I7" t="n">
-        <v>41.50324675633838</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J7" t="n">
-        <v>41.50324675633838</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="K7" t="n">
         <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>287.46592774008</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>473.757506078344</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>656.9471401095532</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>819.6519071512612</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>939.5280729278397</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>942.9502692978907</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>942.9502692978907</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>811.2150239861455</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>811.2150239861455</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U7" t="n">
-        <v>811.2150239861455</v>
+        <v>657.5114775397919</v>
       </c>
       <c r="V7" t="n">
-        <v>811.2150239861455</v>
+        <v>391.5321323606162</v>
       </c>
       <c r="W7" t="n">
-        <v>811.2150239861455</v>
+        <v>108.2017302917938</v>
       </c>
       <c r="X7" t="n">
-        <v>811.2150239861455</v>
+        <v>108.2017302917938</v>
       </c>
       <c r="Y7" t="n">
-        <v>811.2150239861455</v>
+        <v>108.2017302917938</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1364.156581512957</v>
+        <v>680.4177695342091</v>
       </c>
       <c r="C8" t="n">
-        <v>970.9810800158875</v>
+        <v>680.4177695342091</v>
       </c>
       <c r="D8" t="n">
-        <v>585.5399512325553</v>
+        <v>680.4177695342091</v>
       </c>
       <c r="E8" t="n">
-        <v>585.5399512325553</v>
+        <v>611.6668769506939</v>
       </c>
       <c r="F8" t="n">
-        <v>168.645512762533</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>191.9627430103717</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L8" t="n">
-        <v>685.2830347289006</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M8" t="n">
-        <v>1231.283934773481</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N8" t="n">
-        <v>1759.095218410943</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="O8" t="n">
-        <v>2199.134819303272</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2199.134819303272</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4829,25 +4829,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303753</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U8" t="n">
-        <v>2161.142036303753</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="V8" t="n">
-        <v>2161.142036303753</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="W8" t="n">
-        <v>2161.142036303753</v>
+        <v>1477.403224325005</v>
       </c>
       <c r="X8" t="n">
-        <v>2161.142036303753</v>
+        <v>1477.403224325005</v>
       </c>
       <c r="Y8" t="n">
-        <v>1764.651327224354</v>
+        <v>1080.912515245606</v>
       </c>
     </row>
     <row r="9">
@@ -4881,16 +4881,16 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154367</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>47.31297010154367</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>623.6437572083089</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N9" t="n">
         <v>1209.141762214911</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>120.3445224472808</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1719.577864530541</v>
+        <v>1361.068988064615</v>
       </c>
       <c r="C11" t="n">
-        <v>1398.198638179665</v>
+        <v>1039.689761713739</v>
       </c>
       <c r="D11" t="n">
-        <v>1398.198638179665</v>
+        <v>726.0449080766007</v>
       </c>
       <c r="E11" t="n">
-        <v>1067.411388442404</v>
+        <v>726.0449080766007</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3132251185752</v>
+        <v>380.9467447527723</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527722</v>
+        <v>380.9467447527723</v>
       </c>
       <c r="H11" t="n">
         <v>128.6599694654568</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>2954.252057911387</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>2942.484063064755</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V11" t="n">
-        <v>2672.173528914468</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W11" t="n">
-        <v>2372.970769028949</v>
+        <v>2106.065029543617</v>
       </c>
       <c r="X11" t="n">
-        <v>2372.970769028949</v>
+        <v>1788.408699622868</v>
       </c>
       <c r="Y11" t="n">
-        <v>2048.276335095744</v>
+        <v>1463.714265689663</v>
       </c>
     </row>
     <row r="12">
@@ -5118,22 +5118,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="L12" t="n">
-        <v>545.6852136024288</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M12" t="n">
-        <v>1173.45686322911</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N12" t="n">
-        <v>1458.313011372373</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O12" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P12" t="n">
         <v>2380.454662679751</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>445.8679876097261</v>
+        <v>314.848178938469</v>
       </c>
       <c r="C13" t="n">
-        <v>445.8679876097261</v>
+        <v>291.0166528667388</v>
       </c>
       <c r="D13" t="n">
-        <v>362.0311496584348</v>
+        <v>207.1798149154475</v>
       </c>
       <c r="E13" t="n">
-        <v>278.2686126638312</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="F13" t="n">
-        <v>192.7389530229979</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="G13" t="n">
-        <v>192.7389530229979</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="H13" t="n">
-        <v>109.0566771306858</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5200,10 +5200,10 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027735</v>
       </c>
       <c r="M13" t="n">
         <v>746.0697615118222</v>
@@ -5224,25 +5224,25 @@
         <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1444.627927593278</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="T13" t="n">
-        <v>1280.705150907706</v>
+        <v>1149.685342236449</v>
       </c>
       <c r="U13" t="n">
-        <v>1067.062634295801</v>
+        <v>936.0428256245442</v>
       </c>
       <c r="V13" t="n">
-        <v>872.8795642628193</v>
+        <v>741.8597555915622</v>
       </c>
       <c r="W13" t="n">
-        <v>872.8795642628193</v>
+        <v>741.8597555915622</v>
       </c>
       <c r="X13" t="n">
-        <v>710.5955171919962</v>
+        <v>579.5757085207392</v>
       </c>
       <c r="Y13" t="n">
-        <v>559.2797311548335</v>
+        <v>428.2599224835764</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1976.442370415098</v>
+        <v>1346.758074478048</v>
       </c>
       <c r="C14" t="n">
-        <v>1655.063144064223</v>
+        <v>1025.378848127172</v>
       </c>
       <c r="D14" t="n">
-        <v>1341.418290427084</v>
+        <v>711.7339944900339</v>
       </c>
       <c r="E14" t="n">
-        <v>1010.631040689822</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="F14" t="n">
-        <v>665.532877365994</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="G14" t="n">
-        <v>324.166397000191</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="H14" t="n">
-        <v>71.87962171287553</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5306,22 +5306,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>3105.956385205776</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="U14" t="n">
-        <v>2921.999930786569</v>
+        <v>2887.320602933012</v>
       </c>
       <c r="V14" t="n">
-        <v>2921.999930786569</v>
+        <v>2617.010068782724</v>
       </c>
       <c r="W14" t="n">
-        <v>2622.79717090105</v>
+        <v>2317.807308897205</v>
       </c>
       <c r="X14" t="n">
-        <v>2305.140840980301</v>
+        <v>2000.150978976456</v>
       </c>
       <c r="Y14" t="n">
-        <v>2305.140840980301</v>
+        <v>1675.456545043251</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5358,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L15" t="n">
-        <v>865.4243596646552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M15" t="n">
-        <v>1223.947919817482</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1345.668748541356</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>1862.189031132337</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2267.810399848734</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>640.0510576427079</v>
+        <v>655.0952099420617</v>
       </c>
       <c r="C16" t="n">
-        <v>541.6422148548909</v>
+        <v>556.6863671542449</v>
       </c>
       <c r="D16" t="n">
-        <v>457.8053769035994</v>
+        <v>472.8495292029535</v>
       </c>
       <c r="E16" t="n">
-        <v>374.0428399089958</v>
+        <v>389.0869922083497</v>
       </c>
       <c r="F16" t="n">
-        <v>288.5131802681626</v>
+        <v>303.5573325675165</v>
       </c>
       <c r="G16" t="n">
-        <v>192.0554015138021</v>
+        <v>207.099553813156</v>
       </c>
       <c r="H16" t="n">
-        <v>108.3731256214901</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5446,7 +5446,7 @@
         <v>746.0697615118222</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138161</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5455,31 +5455,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
         <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1444.627927593278</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T16" t="n">
-        <v>1280.705150907706</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U16" t="n">
-        <v>1067.062634295801</v>
+        <v>936.0428256245444</v>
       </c>
       <c r="V16" t="n">
-        <v>1067.062634295801</v>
+        <v>936.0428256245444</v>
       </c>
       <c r="W16" t="n">
-        <v>1067.062634295801</v>
+        <v>919.8227395243317</v>
       </c>
       <c r="X16" t="n">
-        <v>904.7785872249781</v>
+        <v>919.8227395243317</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.4628011878153</v>
+        <v>768.506953487169</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975459</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099323</v>
+        <v>542.6718405099317</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803433</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292424</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L17" t="n">
         <v>1059.071548358934</v>
@@ -5540,7 +5540,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5555,7 +5555,7 @@
         <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
         <v>1882.877496443166</v>
@@ -5601,7 +5601,7 @@
         <v>865.4243596646552</v>
       </c>
       <c r="M18" t="n">
-        <v>1223.947919817482</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N18" t="n">
         <v>1223.947919817482</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5683,16 +5683,16 @@
         <v>593.6560140511123</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879427</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296507</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U19" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="20">
@@ -5741,10 +5741,10 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924224</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5783,13 +5783,13 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
@@ -5835,10 +5835,10 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M21" t="n">
-        <v>1223.947919817482</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5911,22 +5911,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222405</v>
       </c>
       <c r="L22" t="n">
-        <v>313.6614512960409</v>
+        <v>313.6614512960402</v>
       </c>
       <c r="M22" t="n">
-        <v>499.953029634305</v>
+        <v>499.9530296343043</v>
       </c>
       <c r="N22" t="n">
-        <v>683.1426636655142</v>
+        <v>683.1426636655135</v>
       </c>
       <c r="O22" t="n">
-        <v>845.8474307072222</v>
+        <v>845.8474307072216</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>965.7235964838002</v>
       </c>
       <c r="Q22" t="n">
         <v>1098.20216247628</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="23">
@@ -5969,19 +5969,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924224</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6011,10 +6011,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6026,13 +6026,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M24" t="n">
-        <v>1223.947919817482</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P24" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6157,13 +6157,13 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>806.619390679759</v>
       </c>
       <c r="O25" t="n">
-        <v>845.8474307072222</v>
+        <v>969.3241577214671</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498046</v>
       </c>
       <c r="Q25" t="n">
         <v>1098.20216247628</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="26">
@@ -6203,19 +6203,19 @@
         <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218606</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390267</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142183</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6227,37 +6227,37 @@
         <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>755.8323718938497</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1342.204025341952</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1888.204925386533</v>
+        <v>1988.523626565243</v>
       </c>
       <c r="N26" t="n">
-        <v>2509.067570753568</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O26" t="n">
-        <v>2949.107171645896</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P26" t="n">
-        <v>3390.346025506992</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q26" t="n">
-        <v>3668.242947377514</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
         <v>3668.242947377514</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605753</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452358</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174145</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
         <v>3060.131976164851</v>
@@ -6269,7 +6269,7 @@
         <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>73.36485894755027</v>
       </c>
       <c r="J27" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="K27" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278173</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M27" t="n">
-        <v>989.7850731278173</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="P27" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985349</v>
+        <v>504.3300981985353</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517124</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D28" t="n">
         <v>368.3732297414159</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878067</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746018</v>
+        <v>172.0564727746021</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>111.5186030232844</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755027</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796863</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
         <v>311.5288809192014</v>
@@ -6400,7 +6400,7 @@
         <v>1380.047947122476</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q28" t="n">
         <v>1689.449032728252</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286447</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988161</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026478</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424151</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.22278621427</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
         <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390261</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142176</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6467,28 +6467,28 @@
         <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1256.420003061516</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M29" t="n">
-        <v>1802.420903106096</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2416.016209023994</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O29" t="n">
-        <v>2949.107171645896</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P29" t="n">
-        <v>3390.346025506991</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
-        <v>3668.242947377513</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
         <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
         <v>3468.110152452356</v>
@@ -6549,10 +6549,10 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1235.193651060917</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="O30" t="n">
         <v>1751.713933651898</v>
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517126</v>
+        <v>429.0656615517127</v>
       </c>
       <c r="D31" t="n">
         <v>368.3732297414157</v>
@@ -6613,22 +6613,22 @@
         <v>172.0564727746018</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232842</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796862</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192014</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904117</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6658,13 +6658,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286447</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988163</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026479</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1743.798875918588</v>
+        <v>1743.79887591859</v>
       </c>
       <c r="C32" t="n">
-        <v>1464.542485303044</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1193.020467401237</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>904.3560533993073</v>
+        <v>904.3560533993077</v>
       </c>
       <c r="F32" t="n">
-        <v>601.3807258108104</v>
+        <v>601.3807258108106</v>
       </c>
       <c r="G32" t="n">
         <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>91.97314162835477</v>
+        <v>91.97314162835515</v>
       </c>
       <c r="I32" t="n">
-        <v>67.55513560234503</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="J32" t="n">
-        <v>292.5019091060132</v>
+        <v>292.5019091060177</v>
       </c>
       <c r="K32" t="n">
-        <v>651.484265133475</v>
+        <v>651.4842651334795</v>
       </c>
       <c r="L32" t="n">
-        <v>1144.804556852004</v>
+        <v>1144.804556852008</v>
       </c>
       <c r="M32" t="n">
-        <v>1690.805456896584</v>
+        <v>1690.805456896589</v>
       </c>
       <c r="N32" t="n">
-        <v>2218.616740534047</v>
+        <v>2330.268861109034</v>
       </c>
       <c r="O32" t="n">
-        <v>2658.656341426375</v>
+        <v>2770.308462001362</v>
       </c>
       <c r="P32" t="n">
-        <v>3118.49595413288</v>
+        <v>3118.495954132884</v>
       </c>
       <c r="Q32" t="n">
-        <v>3303.341514273829</v>
+        <v>3303.341514273833</v>
       </c>
       <c r="R32" t="n">
-        <v>3377.756780117252</v>
+        <v>3377.756780117256</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.162335939828</v>
+        <v>3325.162335939832</v>
       </c>
       <c r="T32" t="n">
-        <v>3215.58084438077</v>
+        <v>3215.580844380774</v>
       </c>
       <c r="U32" t="n">
-        <v>3073.747225696894</v>
+        <v>3073.747225696897</v>
       </c>
       <c r="V32" t="n">
-        <v>2845.559527281938</v>
+        <v>2845.559527281941</v>
       </c>
       <c r="W32" t="n">
-        <v>2588.479603131751</v>
+        <v>2588.479603131754</v>
       </c>
       <c r="X32" t="n">
-        <v>2312.946108946333</v>
+        <v>2312.946108946335</v>
       </c>
       <c r="Y32" t="n">
-        <v>2030.37451074846</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>866.9211187423759</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>716.2668883024681</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>586.1779209239485</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
         <v>449.7314300348363</v>
@@ -6768,25 +6768,25 @@
         <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>205.2398059898325</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>116.9423895904334</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>67.55513560234503</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="J33" t="n">
-        <v>180.6701178220724</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
         <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>983.9753497826121</v>
+        <v>983.9753497826122</v>
       </c>
       <c r="M33" t="n">
-        <v>983.9753497826121</v>
+        <v>983.9753497826122</v>
       </c>
       <c r="N33" t="n">
         <v>1229.383927715712</v>
@@ -6795,28 +6795,28 @@
         <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2151.52557902309</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
         <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2361.973627476045</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2227.042950375914</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
         <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1839.995995253464</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1617.455993624531</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1387.338747757818</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
         <v>1198.03167010783</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>365.6713676929701</v>
+        <v>365.6713676929722</v>
       </c>
       <c r="C34" t="n">
-        <v>309.3853606404848</v>
+        <v>309.3853606404866</v>
       </c>
       <c r="D34" t="n">
-        <v>267.671358424525</v>
+        <v>267.6713584245265</v>
       </c>
       <c r="E34" t="n">
-        <v>226.0316571652529</v>
+        <v>226.0316571652542</v>
       </c>
       <c r="F34" t="n">
-        <v>182.6248332597513</v>
+        <v>182.6248332597523</v>
       </c>
       <c r="G34" t="n">
-        <v>128.2898902407223</v>
+        <v>128.289890240723</v>
       </c>
       <c r="H34" t="n">
-        <v>86.73045008374172</v>
+        <v>86.73045008374208</v>
       </c>
       <c r="I34" t="n">
-        <v>67.55513560234503</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="J34" t="n">
-        <v>67.55513560234503</v>
+        <v>149.4335135798904</v>
       </c>
       <c r="K34" t="n">
-        <v>149.3901767122869</v>
+        <v>342.9206752648151</v>
       </c>
       <c r="L34" t="n">
-        <v>425.1699371610698</v>
+        <v>618.7004357135977</v>
       </c>
       <c r="M34" t="n">
-        <v>723.1136360743169</v>
+        <v>804.9920140518617</v>
       </c>
       <c r="N34" t="n">
-        <v>906.3032701055261</v>
+        <v>1093.98130668532</v>
       </c>
       <c r="O34" t="n">
-        <v>1145.03395315204</v>
+        <v>1256.686073727028</v>
       </c>
       <c r="P34" t="n">
-        <v>1264.910118928619</v>
+        <v>1376.562239503606</v>
       </c>
       <c r="Q34" t="n">
-        <v>1379.984435873653</v>
+        <v>1379.984435873657</v>
       </c>
       <c r="R34" t="n">
-        <v>1370.002557387755</v>
+        <v>1370.002557387759</v>
       </c>
       <c r="S34" t="n">
-        <v>1281.10558445183</v>
+        <v>1281.105584451834</v>
       </c>
       <c r="T34" t="n">
-        <v>1159.30564350159</v>
+        <v>1159.305643501593</v>
       </c>
       <c r="U34" t="n">
-        <v>987.7859626250161</v>
+        <v>987.7859626250195</v>
       </c>
       <c r="V34" t="n">
-        <v>835.7257283273657</v>
+        <v>835.7257283273689</v>
       </c>
       <c r="W34" t="n">
-        <v>666.3144371400687</v>
+        <v>666.3144371400716</v>
       </c>
       <c r="X34" t="n">
-        <v>546.1532258045772</v>
+        <v>546.1532258045798</v>
       </c>
       <c r="Y34" t="n">
-        <v>436.960275502746</v>
+        <v>436.9602755027483</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C35" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H35" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6965,10 +6965,10 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
         <v>2644.789635573994</v>
@@ -6977,10 +6977,10 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="36">
@@ -7023,7 +7023,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7069,46 +7069,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>67.69877031229888</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>149.5338114222407</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L37" t="n">
-        <v>313.6614512960405</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M37" t="n">
-        <v>629.0093992567331</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879423</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296503</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P37" t="n">
         <v>1094.779966106229</v>
@@ -7123,22 +7123,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7157,16 +7157,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G38" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H38" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924227</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7175,16 +7175,16 @@
         <v>206.7689006129436</v>
       </c>
       <c r="K38" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404064</v>
       </c>
       <c r="L38" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M38" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N38" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O38" t="n">
         <v>2572.923332933306</v>
@@ -7193,10 +7193,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S38" t="n">
         <v>3071.119566829236</v>
@@ -7211,7 +7211,7 @@
         <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
@@ -7251,13 +7251,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M39" t="n">
         <v>1223.947919817482</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462914</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229981</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>278.5901810446702</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>442.71782091847</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>629.009399256734</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879432</v>
       </c>
       <c r="O40" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296512</v>
       </c>
       <c r="P40" t="n">
-        <v>960.1439538756169</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q40" t="n">
-        <v>1090.581152532862</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S40" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918803</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="41">
@@ -7391,19 +7391,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D41" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7412,16 +7412,16 @@
         <v>206.7689006129436</v>
       </c>
       <c r="K41" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404064</v>
       </c>
       <c r="L41" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M41" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N41" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O41" t="n">
         <v>2572.923332933306</v>
@@ -7430,10 +7430,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S41" t="n">
         <v>3071.119566829235</v>
@@ -7448,7 +7448,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
         <v>2147.691468840156</v>
@@ -7488,25 +7488,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843826</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M42" t="n">
-        <v>978.5393418843826</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7561,7 +7561,7 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7573,13 +7573,13 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>313.661451296041</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>629.0093992567336</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N43" t="n">
-        <v>812.1990332879427</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O43" t="n">
         <v>974.9038003296507</v>
@@ -7628,19 +7628,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D44" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G44" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7676,13 +7676,13 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T44" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
         <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
         <v>2405.467337224691</v>
@@ -7691,7 +7691,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y44" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>494.9732559860694</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="L45" t="n">
-        <v>978.5393418843826</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M45" t="n">
-        <v>978.5393418843826</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H46" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7807,49 +7807,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222412</v>
       </c>
       <c r="L46" t="n">
-        <v>308.0818086878572</v>
+        <v>313.661451296041</v>
       </c>
       <c r="M46" t="n">
-        <v>499.9530296343054</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N46" t="n">
-        <v>683.1426636655146</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O46" t="n">
-        <v>845.8474307072227</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S46" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
   </sheetData>
@@ -7979,25 +7979,25 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>668.515636051957</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>233.0219164930833</v>
+        <v>667.9090757920148</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>239.306026498886</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,7 +8055,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
@@ -8064,19 +8064,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>611.1777065035417</v>
+        <v>611.1777065035426</v>
       </c>
       <c r="N3" t="n">
-        <v>604.1626973083964</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>183.6305080413522</v>
+        <v>170.2276803222912</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8216,19 +8216,19 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>495.6374895944585</v>
       </c>
       <c r="L5" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>193.5145772035906</v>
+        <v>668.5156360519579</v>
       </c>
       <c r="N5" t="n">
-        <v>667.9090757920139</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
         <v>502.0059847475129</v>
@@ -8295,22 +8295,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>375.8483333753206</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>465.3882399439945</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>611.4781433431187</v>
+        <v>611.4781433431197</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
         <v>327.7205688679246</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
@@ -8462,16 +8462,16 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>540.4718524873235</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>312.6943406142593</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,19 +8529,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>674.5394322581657</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>333.2595653118437</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8766,7 +8766,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>117.494503443537</v>
       </c>
       <c r="K12" t="n">
         <v>89.59693533333335</v>
@@ -8778,13 +8778,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>373.1055958271594</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
         <v>90.98815315591399</v>
@@ -8936,13 +8936,13 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N14" t="n">
-        <v>682.2612020826954</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O14" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P14" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q14" t="n">
         <v>331.2113854294513</v>
@@ -9006,16 +9006,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M15" t="n">
-        <v>454.5321323046928</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9024,7 +9024,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>204.7702368236083</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9179,7 +9179,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P17" t="n">
-        <v>502.0059847475131</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
         <v>331.2113854294513</v>
@@ -9249,10 +9249,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>454.5321323046928</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9483,13 +9483,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M21" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>187.5973797276328</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9714,7 +9714,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
@@ -9723,19 +9723,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>571.8744206036794</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9951,7 +9951,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9963,7 +9963,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>333.2595653118427</v>
+        <v>684.2495388215578</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -9972,7 +9972,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10197,13 +10197,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>340.274574506988</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>220.884447093964</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10437,7 +10437,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>333.2595653118431</v>
+        <v>333.2595653118434</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10671,10 +10671,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N36" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10823,7 +10823,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K38" t="n">
-        <v>505.666843611017</v>
+        <v>505.6668436110179</v>
       </c>
       <c r="L38" t="n">
         <v>651.5514946987026</v>
@@ -10899,7 +10899,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
@@ -10908,7 +10908,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>340.2745745069883</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N39" t="n">
         <v>85.37211285416666</v>
@@ -11136,19 +11136,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>203.8424305246122</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11157,7 +11157,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,19 +11373,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>203.3790190010273</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -11394,7 +11394,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23255,22 +23255,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>223.7926610107534</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362793</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>170.4665749768495</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993873</v>
+        <v>73.83154354892585</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442485</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681697</v>
+        <v>95.49320096681699</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338903</v>
       </c>
       <c r="I13" t="n">
-        <v>14.21699478225636</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23504,16 +23504,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>56.21254427505548</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,13 +23546,13 @@
         <v>93.770107113628</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>115.8547494464241</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>14.89371077636033</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534022</v>
+        <v>193.3609004141916</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -25922,7 +25922,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>-3.694822225952521e-13</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>695116.4843667955</v>
+        <v>695116.4843667953</v>
       </c>
     </row>
     <row r="7">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>783203.7339764116</v>
+        <v>783203.7339764117</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>504930.0986613989</v>
+        <v>504930.0986613992</v>
       </c>
       <c r="C2" t="n">
         <v>504930.0986613991</v>
@@ -26326,34 +26326,34 @@
         <v>446205.2655883212</v>
       </c>
       <c r="G2" t="n">
+        <v>504930.0986613988</v>
+      </c>
+      <c r="H2" t="n">
+        <v>504930.0986613989</v>
+      </c>
+      <c r="I2" t="n">
+        <v>504930.098661399</v>
+      </c>
+      <c r="J2" t="n">
+        <v>504930.0986613989</v>
+      </c>
+      <c r="K2" t="n">
+        <v>504930.0986613989</v>
+      </c>
+      <c r="L2" t="n">
+        <v>504930.0986613983</v>
+      </c>
+      <c r="M2" t="n">
+        <v>504930.0986613984</v>
+      </c>
+      <c r="N2" t="n">
+        <v>504930.0986613982</v>
+      </c>
+      <c r="O2" t="n">
         <v>504930.0986613985</v>
       </c>
-      <c r="H2" t="n">
-        <v>504930.098661399</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="P2" t="n">
         <v>504930.0986613985</v>
-      </c>
-      <c r="J2" t="n">
-        <v>504930.098661399</v>
-      </c>
-      <c r="K2" t="n">
-        <v>504930.098661399</v>
-      </c>
-      <c r="L2" t="n">
-        <v>504930.0986613992</v>
-      </c>
-      <c r="M2" t="n">
-        <v>504930.0986613987</v>
-      </c>
-      <c r="N2" t="n">
-        <v>504930.0986613989</v>
-      </c>
-      <c r="O2" t="n">
-        <v>504930.0986613983</v>
-      </c>
-      <c r="P2" t="n">
-        <v>504930.0986613979</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>173858.6570340549</v>
+        <v>173858.6570340552</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>22558.42953401372</v>
+        <v>22558.42953401344</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668195</v>
+        <v>47425.32553668198</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>200285.8640399292</v>
+        <v>200285.8640399294</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>62456.24177539691</v>
+        <v>62456.24177539672</v>
       </c>
       <c r="M3" t="n">
-        <v>43252.52447081121</v>
+        <v>43252.52447081117</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277118</v>
+        <v>27767.6940427712</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>198656.9481256033</v>
+        <v>198655.184245486</v>
       </c>
       <c r="C4" t="n">
-        <v>198656.9481256034</v>
+        <v>198655.184245486</v>
       </c>
       <c r="D4" t="n">
-        <v>181137.630441116</v>
+        <v>181135.7201902442</v>
       </c>
       <c r="E4" t="n">
-        <v>104289.5514471513</v>
+        <v>104287.3978109116</v>
       </c>
       <c r="F4" t="n">
-        <v>104289.5514471513</v>
+        <v>104287.3978109117</v>
       </c>
       <c r="G4" t="n">
-        <v>152048.4679387335</v>
+        <v>152046.3143024939</v>
       </c>
       <c r="H4" t="n">
-        <v>152048.4679387335</v>
+        <v>152046.3143024939</v>
       </c>
       <c r="I4" t="n">
-        <v>152048.4679387335</v>
+        <v>152046.3143024939</v>
       </c>
       <c r="J4" t="n">
-        <v>152798.9604031167</v>
+        <v>152796.806766877</v>
       </c>
       <c r="K4" t="n">
-        <v>152798.9604031167</v>
+        <v>152796.806766877</v>
       </c>
       <c r="L4" t="n">
-        <v>152409.9918935785</v>
+        <v>152407.8382573389</v>
       </c>
       <c r="M4" t="n">
-        <v>152048.4679387335</v>
+        <v>152046.3143024938</v>
       </c>
       <c r="N4" t="n">
-        <v>152048.4679387335</v>
+        <v>152046.3143024938</v>
       </c>
       <c r="O4" t="n">
-        <v>152048.4679387335</v>
+        <v>152046.3143024939</v>
       </c>
       <c r="P4" t="n">
-        <v>152048.4679387335</v>
+        <v>152046.3143024938</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65170.06753481716</v>
+        <v>65170.06753481722</v>
       </c>
       <c r="C5" t="n">
-        <v>65170.06753481716</v>
+        <v>65170.06753481722</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26488,16 +26488,16 @@
         <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
         <v>63659.04525391951</v>
       </c>
       <c r="K5" t="n">
-        <v>63659.04525391951</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>60823.1981331542</v>
+        <v>60823.19813315423</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26506,7 +26506,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="P5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>67244.42596692349</v>
+        <v>67246.18984704079</v>
       </c>
       <c r="C6" t="n">
-        <v>241103.0830009786</v>
+        <v>241104.8468810958</v>
       </c>
       <c r="D6" t="n">
-        <v>231648.5814090963</v>
+        <v>231650.4916599684</v>
       </c>
       <c r="E6" t="n">
-        <v>176607.1329672849</v>
+        <v>176399.5550568351</v>
       </c>
       <c r="F6" t="n">
-        <v>288729.6944413293</v>
+        <v>288522.1165308794</v>
       </c>
       <c r="G6" t="n">
-        <v>247286.5358704634</v>
+        <v>247288.6895067033</v>
       </c>
       <c r="H6" t="n">
-        <v>294711.8614071459</v>
+        <v>294714.0150433854</v>
       </c>
       <c r="I6" t="n">
-        <v>294711.8614071454</v>
+        <v>294714.0150433855</v>
       </c>
       <c r="J6" t="n">
-        <v>88186.22896443371</v>
+        <v>88188.38260067285</v>
       </c>
       <c r="K6" t="n">
-        <v>288472.0930043629</v>
+        <v>288474.2466406024</v>
       </c>
       <c r="L6" t="n">
-        <v>229240.6668592696</v>
+        <v>229242.8204955084</v>
       </c>
       <c r="M6" t="n">
-        <v>251459.3369363344</v>
+        <v>251461.4905725737</v>
       </c>
       <c r="N6" t="n">
-        <v>294711.8614071457</v>
+        <v>294714.0150433847</v>
       </c>
       <c r="O6" t="n">
-        <v>266944.167364374</v>
+        <v>266946.3210006137</v>
       </c>
       <c r="P6" t="n">
-        <v>294711.8614071448</v>
+        <v>294714.0150433849</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F2" t="n">
         <v>71.07831239473194</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>112.7799197727102</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>518.7905844542298</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="C4" t="n">
-        <v>518.7905844542298</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26808,25 +26808,25 @@
         <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
         <v>917.0607368443784</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>844.4391950293129</v>
+        <v>844.439195029314</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="P4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085244</v>
+        <v>59.28165692085247</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>34.70961755346399</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>78.0703022192459</v>
+      </c>
+      <c r="M2" t="n">
+        <v>17.58004954287449</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>34.709617553464</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>78.07030221924614</v>
-      </c>
-      <c r="M2" t="n">
-        <v>17.58004954287424</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>34.70961755346397</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>518.7905844542298</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>72.62154181506526</v>
+        <v>72.62154181506435</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>659.362224997164</v>
+        <v>659.3622249971651</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>117.1268713042801</v>
+        <v>117.1268713042791</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085244</v>
+        <v>59.28165692085247</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.709617553464</v>
+        <v>34.70961755346399</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>518.7905844542298</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>72.62154181506526</v>
+        <v>72.62154181506435</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>307.6953359368588</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,10 +27388,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>331.8262755834161</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -27430,13 +27430,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
@@ -27445,7 +27445,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27464,16 +27464,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>134.9643187492887</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>19.20126355741525</v>
       </c>
     </row>
     <row r="4">
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>66.1236944758021</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
@@ -27585,7 +27585,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>92.68333097786591</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
@@ -27600,10 +27600,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,19 +27616,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>343.1366015281767</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
@@ -27673,13 +27673,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>350.296845832781</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27698,10 +27698,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
-        <v>106.6157057928238</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27746,10 +27746,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>17.95957579094528</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27780,19 +27780,19 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>65.73198240919209</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -27822,19 +27822,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>70.37003012064838</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>330.4943059769408</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>288.9119107224973</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
@@ -28014,25 +28014,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004151</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>208.1958612258543</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="14">
@@ -28755,19 +28755,19 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>35.71049010668813</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>28.01250026485198</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28843,7 +28843,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-13</v>
       </c>
       <c r="R20" t="n">
         <v>37.61298457733328</v>
@@ -28983,10 +28983,10 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>5.636002634528339</v>
       </c>
       <c r="L22" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -28998,10 +28998,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
@@ -29229,16 +29229,16 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O25" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>5.636002634528316</v>
       </c>
       <c r="R25" t="n">
         <v>122.6619794737488</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K26" t="n">
-        <v>86.65052755599612</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431644</v>
+        <v>30.27223765901317</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>86.65052755599527</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431647</v>
+        <v>30.27223765901311</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431647</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="32">
@@ -29746,31 +29746,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>112.7799197727102</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C32" t="n">
-        <v>112.7799197727102</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D32" t="n">
-        <v>112.7799197727102</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E32" t="n">
-        <v>112.7799197727102</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F32" t="n">
-        <v>112.7799197727102</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G32" t="n">
-        <v>112.7799197727102</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H32" t="n">
-        <v>112.7799197727102</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I32" t="n">
-        <v>112.7799197727102</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J32" t="n">
-        <v>81.10808140892931</v>
+        <v>81.10808140893386</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -29782,40 +29782,40 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>112.7799197727102</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>112.7799197727102</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="S32" t="n">
-        <v>112.7799197727102</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T32" t="n">
-        <v>112.7799197727102</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U32" t="n">
-        <v>112.7799197727102</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V32" t="n">
-        <v>112.7799197727102</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W32" t="n">
-        <v>112.7799197727102</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X32" t="n">
-        <v>112.7799197727102</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y32" t="n">
-        <v>112.7799197727102</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>112.7799197727102</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C34" t="n">
-        <v>112.7799197727102</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D34" t="n">
-        <v>112.7799197727102</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E34" t="n">
-        <v>112.7799197727102</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F34" t="n">
-        <v>112.7799197727102</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G34" t="n">
-        <v>112.7799197727102</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H34" t="n">
-        <v>112.7799197727102</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I34" t="n">
-        <v>112.7799197727102</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="L34" t="n">
-        <v>112.7799197727102</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M34" t="n">
-        <v>112.7799197727102</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>106.8683420224737</v>
       </c>
       <c r="O34" t="n">
-        <v>76.79385455030931</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>112.7799197727102</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>112.7799197727102</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="S34" t="n">
-        <v>112.7799197727102</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T34" t="n">
-        <v>112.7799197727102</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U34" t="n">
-        <v>112.7799197727102</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V34" t="n">
-        <v>112.7799197727102</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W34" t="n">
-        <v>112.7799197727102</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X34" t="n">
-        <v>112.7799197727102</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y34" t="n">
-        <v>112.7799197727102</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="35">
@@ -30165,16 +30165,16 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>35.71049010668771</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>5.63600263452912</v>
       </c>
       <c r="M37" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30402,10 +30402,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668865</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30423,10 +30423,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>128.2979821082773</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30484,7 +30484,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -30645,7 +30645,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>5.636002634529092</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>130.3599693155844</v>
@@ -30654,7 +30654,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -30879,13 +30879,13 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>5.636002634529092</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>5.636002634529518</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -30894,7 +30894,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -34699,25 +34699,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>518.7905844542298</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>83.90342515529923</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>94.8073280804938</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
@@ -34784,19 +34784,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>518.7905844542298</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="N3" t="n">
-        <v>518.7905844542298</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>90.94294915246337</v>
+        <v>77.54012143340232</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,19 +34936,19 @@
         <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>352.5790864152211</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>43.78952560586337</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="N5" t="n">
-        <v>518.7905844542298</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>351.7045375065877</v>
@@ -35015,22 +35015,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>286.2513980419873</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>373.0011178946826</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>518.7905844542298</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
         <v>236.7324157120106</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
@@ -35182,16 +35182,16 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>390.9080150632272</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>168.1956421958672</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>582.1523102088538</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35413,7 +35413,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L11" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M11" t="n">
         <v>551.5160606510915</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>35.0500461102036</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35498,13 +35498,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>287.7334829729927</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257285</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488441</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35656,13 +35656,13 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N14" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P14" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q14" t="n">
         <v>186.7126870110591</v>
@@ -35726,16 +35726,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>362.1450102553808</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35744,7 +35744,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>113.7820836676943</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35899,7 +35899,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
         <v>186.7126870110591</v>
@@ -35969,10 +35969,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
         <v>362.1450102553808</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -36051,19 +36051,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>220.7505244816469</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>121.0870361379582</v>
+        <v>149.0995364028101</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36139,7 +36139,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36203,13 +36203,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>102.2252668734662</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36279,10 +36279,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133831</v>
       </c>
       <c r="L22" t="n">
-        <v>171.421497456549</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
@@ -36294,10 +36294,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>322.9688344062893</v>
@@ -36443,19 +36443,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>486.5023077495127</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36525,16 +36525,16 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905432</v>
       </c>
       <c r="O25" t="n">
-        <v>169.9842521716079</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644680799</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K26" t="n">
-        <v>449.2589679877757</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
         <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
         <v>444.4844453457863</v>
@@ -36613,10 +36613,10 @@
         <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853755</v>
+        <v>216.9849246700723</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>56.37828989698319</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
@@ -36683,7 +36683,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>247.8874524576761</v>
+        <v>598.8774259673912</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36692,7 +36692,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215737</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004055</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
         <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
-        <v>619.7932383009064</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>538.4757198201028</v>
+        <v>474.7566830047994</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
         <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,13 +36917,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>247.8874524576761</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>135.5123342397974</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>227.2189631350183</v>
+        <v>227.2189631350228</v>
       </c>
       <c r="K32" t="n">
         <v>362.6084404317796</v>
@@ -37078,19 +37078,19 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>533.1427107449111</v>
+        <v>645.922630517621</v>
       </c>
       <c r="O32" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>464.4844572792979</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>75.16693519537689</v>
+        <v>75.16693519537661</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37157,7 +37157,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>247.8874524576764</v>
+        <v>247.8874524576768</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>82.70543230055083</v>
       </c>
       <c r="K34" t="n">
-        <v>82.66165768680997</v>
+        <v>195.4415774595199</v>
       </c>
       <c r="L34" t="n">
-        <v>278.5654145947302</v>
+        <v>278.5654145947299</v>
       </c>
       <c r="M34" t="n">
-        <v>300.9532312255021</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>185.0400343749588</v>
+        <v>291.9083763974324</v>
       </c>
       <c r="O34" t="n">
-        <v>241.1421040873882</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>116.2366837828627</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37391,10 +37391,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N36" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>5.636002634528635</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L37" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565491</v>
       </c>
       <c r="M37" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
@@ -37543,7 +37543,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K38" t="n">
-        <v>362.6084404317796</v>
+        <v>362.6084404317805</v>
       </c>
       <c r="L38" t="n">
         <v>498.303324968211</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
@@ -37628,7 +37628,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>247.8874524576764</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>5.636002634529575</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023943</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37719,10 +37719,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>131.7547461184298</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>7.697989841835607</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K41" t="n">
-        <v>362.6084404317796</v>
+        <v>362.6084404317805</v>
       </c>
       <c r="L41" t="n">
         <v>498.303324968211</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>113.782083667694</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37877,7 +37877,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37941,7 +37941,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>171.4214974565491</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
         <v>318.5332807683764</v>
@@ -37950,7 +37950,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716079</v>
       </c>
       <c r="P43" t="n">
         <v>121.0870361379582</v>
@@ -38035,7 +38035,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>113.782083667694</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38114,7 +38114,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,13 +38175,13 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133907</v>
       </c>
       <c r="L46" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>193.8093140873215</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N46" t="n">
         <v>185.0400343749588</v>
@@ -38190,7 +38190,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
         <v>3.456764010152483</v>
